--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_8_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_8_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1459360.382454316</v>
+        <v>1404408.493170219</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408938.3872013175</v>
+        <v>408938.3872013176</v>
       </c>
     </row>
     <row r="8">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>209.4407860232714</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W11" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
-        <v>291.5590642877623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -1460,16 +1460,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I12" t="n">
-        <v>80.84345120350704</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V12" t="n">
-        <v>94.19400424784168</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
-        <v>217.3129144394706</v>
+        <v>59.60472455613539</v>
       </c>
       <c r="Y12" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>77.52012824943829</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.58429473553585</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>224.3942962732596</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>221.7685724598869</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>417.3985592667085</v>
+        <v>374.3105150893917</v>
       </c>
       <c r="H14" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1697,16 +1697,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>79.72188940476146</v>
       </c>
       <c r="I15" t="n">
-        <v>3.329915919761908</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>86.89603752886885</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S15" t="n">
         <v>177.283526739121</v>
@@ -1745,7 +1745,7 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V15" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>266.7045835770116</v>
@@ -1754,7 +1754,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>77.52012824943829</v>
+        <v>7.226885210985958</v>
       </c>
       <c r="I16" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.58429473553585</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>371.4789120616362</v>
+        <v>203.4503694426771</v>
       </c>
       <c r="F17" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>201.9479912440792</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="18">
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>1.238714275295563</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1982,16 +1982,16 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>85.84758010586393</v>
       </c>
     </row>
     <row r="19">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.916258666857022</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>129.482578516696</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>127.6123684807348</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>192.3707743305519</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2162,25 +2162,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>113.3761055335301</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2219,16 +2219,16 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>34.19165113473862</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.14329602706151</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>174.3941919203111</v>
+        <v>119.920671635353</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>50.0001043529486</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>7.586331480584494</v>
       </c>
       <c r="I23" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>55.08125065520306</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>110.9715513337284</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
@@ -2408,16 +2408,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>147.9743432409925</v>
       </c>
       <c r="H24" t="n">
-        <v>27.06311221035532</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.89603752886883</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>10.67880083738547</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>80.39631948615272</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="26">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>295.839350858331</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>107.3044420457301</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2639,22 +2639,22 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>15.6809839899649</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>27.67799469514078</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2690,10 +2690,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>266.7045835770116</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>119.920671635353</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>76.53519509961438</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2797,22 +2797,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
-        <v>110.0550115688187</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T29" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>242.184624251456</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="30">
@@ -2870,25 +2870,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>111.6082501915074</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>79.9913286633857</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
         <v>223.3842861340256</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>73.3534034990646</v>
+        <v>131.0804113283488</v>
       </c>
       <c r="S31" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>417.3985592667085</v>
+        <v>329.9214114967089</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T32" t="n">
-        <v>0.6214712283056542</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V32" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="33">
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>90.22595344863068</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S33" t="n">
         <v>177.283526739121</v>
@@ -3164,7 +3164,7 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1773944157285</v>
+        <v>52.98915881112435</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>73.35340349906471</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>8.916258666857022</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>87.63319326613021</v>
       </c>
       <c r="F35" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>86.56662014895244</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3347,25 +3347,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>90.22595344863112</v>
       </c>
       <c r="D36" t="n">
-        <v>21.44841616029763</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U36" t="n">
         <v>237.1773944157285</v>
@@ -3407,10 +3407,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>129.482578516696</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>123.1434003800101</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,13 +3505,13 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>199.339662927882</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
         <v>403.1992496400135</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>51.6052820401722</v>
       </c>
     </row>
     <row r="39">
@@ -3581,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>90.22595344863045</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T39" t="n">
-        <v>109.7969997889531</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X40" t="n">
-        <v>80.39631948615289</v>
+        <v>7.226885210985951</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
-        <v>70.64198621975503</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>332.2779548450047</v>
+        <v>65.54961263253179</v>
       </c>
       <c r="I41" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3818,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>36.19754624225005</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>86.89603752886883</v>
       </c>
       <c r="S42" t="n">
-        <v>16.21401633141987</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>7.226885210985951</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>8.916258666857136</v>
       </c>
       <c r="W43" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>371.4789120616362</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
-        <v>198.9799304689883</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.2855674184499</v>
+        <v>156.7511343939108</v>
       </c>
     </row>
     <row r="45">
@@ -4064,19 +4064,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>147.9743432409925</v>
+        <v>90.22595344863045</v>
       </c>
       <c r="H45" t="n">
-        <v>38.11065253681663</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4115,10 +4115,10 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>16.9345688696496</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>76.53519509961447</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34.31465285444517</v>
+        <v>922.6892998347516</v>
       </c>
       <c r="C11" t="n">
-        <v>34.31465285444517</v>
+        <v>922.6892998347516</v>
       </c>
       <c r="D11" t="n">
-        <v>34.31465285444517</v>
+        <v>581.5053001961383</v>
       </c>
       <c r="E11" t="n">
-        <v>34.31465285444517</v>
+        <v>581.5053001961383</v>
       </c>
       <c r="F11" t="n">
-        <v>34.31465285444517</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="G11" t="n">
-        <v>34.31465285444517</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H11" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I11" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J11" t="n">
-        <v>79.26440887602973</v>
+        <v>79.26440887603007</v>
       </c>
       <c r="K11" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193755</v>
       </c>
       <c r="L11" t="n">
-        <v>525.5283691389719</v>
+        <v>525.5283691389726</v>
       </c>
       <c r="M11" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292787</v>
       </c>
       <c r="N11" t="n">
         <v>1186.279026157783</v>
@@ -5062,31 +5062,31 @@
         <v>1650.639799716936</v>
       </c>
       <c r="Q11" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R11" t="n">
-        <v>1610.227176505316</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S11" t="n">
-        <v>1610.227176505316</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T11" t="n">
-        <v>1610.227176505316</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U11" t="n">
-        <v>1357.666194286149</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="V11" t="n">
-        <v>1033.545200741552</v>
+        <v>1286.106182960717</v>
       </c>
       <c r="W11" t="n">
-        <v>692.235641321585</v>
+        <v>1286.106182960717</v>
       </c>
       <c r="X11" t="n">
-        <v>328.8187581956192</v>
+        <v>922.6892998347516</v>
       </c>
       <c r="Y11" t="n">
-        <v>34.31465285444517</v>
+        <v>922.6892998347516</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.7302989597495</v>
+        <v>879.7061105840106</v>
       </c>
       <c r="C12" t="n">
-        <v>450.3180246927132</v>
+        <v>879.7061105840106</v>
       </c>
       <c r="D12" t="n">
-        <v>289.5379084537449</v>
+        <v>718.9259943450423</v>
       </c>
       <c r="E12" t="n">
-        <v>115.9747045751594</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="F12" t="n">
-        <v>115.9747045751594</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="G12" t="n">
-        <v>115.9747045751594</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H12" t="n">
         <v>115.9747045751594</v>
       </c>
       <c r="I12" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J12" t="n">
-        <v>54.4093011102587</v>
+        <v>54.40930111025867</v>
       </c>
       <c r="K12" t="n">
-        <v>54.4093011102587</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L12" t="n">
-        <v>304.6946924676441</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M12" t="n">
-        <v>679.5863020207057</v>
+        <v>873.305863297421</v>
       </c>
       <c r="N12" t="n">
         <v>1082.820066520717</v>
@@ -5141,31 +5141,31 @@
         <v>1625.193464940061</v>
       </c>
       <c r="Q12" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R12" t="n">
         <v>1627.958867440573</v>
       </c>
       <c r="S12" t="n">
-        <v>1627.958867440573</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T12" t="n">
-        <v>1627.958867440573</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="U12" t="n">
-        <v>1627.958867440573</v>
+        <v>1209.311472334664</v>
       </c>
       <c r="V12" t="n">
-        <v>1532.813408604369</v>
+        <v>1209.311472334664</v>
       </c>
       <c r="W12" t="n">
-        <v>1263.414839334661</v>
+        <v>939.9129030649555</v>
       </c>
       <c r="X12" t="n">
-        <v>1043.906844951357</v>
+        <v>879.7061105840106</v>
       </c>
       <c r="Y12" t="n">
-        <v>818.2661518866846</v>
+        <v>879.7061105840106</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>334.8576753800221</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C13" t="n">
-        <v>334.8576753800221</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D13" t="n">
-        <v>334.8576753800221</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E13" t="n">
-        <v>334.8576753800221</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F13" t="n">
-        <v>334.8576753800221</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G13" t="n">
-        <v>334.8576753800221</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H13" t="n">
-        <v>256.5545155321046</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I13" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J13" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K13" t="n">
-        <v>42.23041924514573</v>
+        <v>42.23041924514571</v>
       </c>
       <c r="L13" t="n">
-        <v>105.4471208306433</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M13" t="n">
-        <v>180.6961586662945</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N13" t="n">
         <v>262.1720788316463</v>
       </c>
       <c r="O13" t="n">
-        <v>315.4306320098956</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P13" t="n">
-        <v>334.8576753800221</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q13" t="n">
-        <v>334.8576753800221</v>
+        <v>260.97555818097</v>
       </c>
       <c r="R13" t="n">
-        <v>334.8576753800221</v>
+        <v>260.97555818097</v>
       </c>
       <c r="S13" t="n">
-        <v>334.8576753800221</v>
+        <v>260.97555818097</v>
       </c>
       <c r="T13" t="n">
-        <v>334.8576753800221</v>
+        <v>260.97555818097</v>
       </c>
       <c r="U13" t="n">
-        <v>334.8576753800221</v>
+        <v>260.97555818097</v>
       </c>
       <c r="V13" t="n">
-        <v>334.8576753800221</v>
+        <v>260.97555818097</v>
       </c>
       <c r="W13" t="n">
-        <v>334.8576753800221</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X13" t="n">
-        <v>334.8576753800221</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y13" t="n">
-        <v>334.8576753800221</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1610.227176505315</v>
+        <v>819.6780515710161</v>
       </c>
       <c r="C14" t="n">
-        <v>1610.227176505315</v>
+        <v>819.6780515710161</v>
       </c>
       <c r="D14" t="n">
-        <v>1610.227176505315</v>
+        <v>819.6780515710161</v>
       </c>
       <c r="E14" t="n">
-        <v>1386.218517454924</v>
+        <v>819.6780515710161</v>
       </c>
       <c r="F14" t="n">
-        <v>978.9465481215775</v>
+        <v>412.4060822376691</v>
       </c>
       <c r="G14" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H14" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I14" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J14" t="n">
-        <v>79.26440887602973</v>
+        <v>79.26440887602993</v>
       </c>
       <c r="K14" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L14" t="n">
-        <v>525.5283691389719</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M14" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292776</v>
       </c>
       <c r="N14" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O14" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P14" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q14" t="n">
         <v>1715.732642722258</v>
@@ -5305,25 +5305,25 @@
         <v>1610.227176505315</v>
       </c>
       <c r="S14" t="n">
-        <v>1610.227176505315</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T14" t="n">
-        <v>1610.227176505315</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="U14" t="n">
-        <v>1610.227176505315</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="V14" t="n">
-        <v>1610.227176505315</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="W14" t="n">
-        <v>1610.227176505315</v>
+        <v>819.6780515710161</v>
       </c>
       <c r="X14" t="n">
-        <v>1610.227176505315</v>
+        <v>819.6780515710161</v>
       </c>
       <c r="Y14" t="n">
-        <v>1610.227176505315</v>
+        <v>819.6780515710161</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>37.6782042885481</v>
+        <v>506.3986154495859</v>
       </c>
       <c r="C15" t="n">
-        <v>37.6782042885481</v>
+        <v>506.3986154495859</v>
       </c>
       <c r="D15" t="n">
-        <v>37.6782042885481</v>
+        <v>506.3986154495859</v>
       </c>
       <c r="E15" t="n">
-        <v>37.6782042885481</v>
+        <v>506.3986154495859</v>
       </c>
       <c r="F15" t="n">
-        <v>37.6782042885481</v>
+        <v>345.97089916683</v>
       </c>
       <c r="G15" t="n">
-        <v>37.6782042885481</v>
+        <v>196.5018655900699</v>
       </c>
       <c r="H15" t="n">
-        <v>37.6782042885481</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I15" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J15" t="n">
-        <v>54.40930111025869</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K15" t="n">
-        <v>215.5091216889814</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L15" t="n">
-        <v>304.6946924676439</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M15" t="n">
-        <v>679.5863020207055</v>
+        <v>853.2112150416077</v>
       </c>
       <c r="N15" t="n">
-        <v>1082.820066520717</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O15" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P15" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q15" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R15" t="n">
-        <v>1627.958867440573</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S15" t="n">
         <v>1448.884598007117</v>
       </c>
       <c r="T15" t="n">
-        <v>1234.878304775052</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="U15" t="n">
-        <v>995.3051791025987</v>
+        <v>995.3051791025982</v>
       </c>
       <c r="V15" t="n">
-        <v>752.2254610062328</v>
+        <v>995.3051791025982</v>
       </c>
       <c r="W15" t="n">
-        <v>482.8268917365241</v>
+        <v>725.9066098328896</v>
       </c>
       <c r="X15" t="n">
-        <v>263.3188973532204</v>
+        <v>506.3986154495859</v>
       </c>
       <c r="Y15" t="n">
-        <v>37.6782042885481</v>
+        <v>506.3986154495859</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>334.8576753800221</v>
+        <v>41.61453690594612</v>
       </c>
       <c r="C16" t="n">
-        <v>334.8576753800221</v>
+        <v>41.61453690594612</v>
       </c>
       <c r="D16" t="n">
-        <v>334.8576753800221</v>
+        <v>41.61453690594612</v>
       </c>
       <c r="E16" t="n">
-        <v>334.8576753800221</v>
+        <v>41.61453690594612</v>
       </c>
       <c r="F16" t="n">
-        <v>334.8576753800221</v>
+        <v>41.61453690594612</v>
       </c>
       <c r="G16" t="n">
-        <v>334.8576753800221</v>
+        <v>41.61453690594612</v>
       </c>
       <c r="H16" t="n">
-        <v>256.5545155321046</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I16" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J16" t="n">
         <v>34.31465285444516</v>
@@ -5448,40 +5448,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N16" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O16" t="n">
-        <v>315.4306320098956</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P16" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q16" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R16" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S16" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T16" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U16" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V16" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="W16" t="n">
-        <v>334.8576753800221</v>
+        <v>41.61453690594612</v>
       </c>
       <c r="X16" t="n">
-        <v>334.8576753800221</v>
+        <v>41.61453690594612</v>
       </c>
       <c r="Y16" t="n">
-        <v>334.8576753800221</v>
+        <v>41.61453690594612</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1715.732642722258</v>
+        <v>988.2760455058774</v>
       </c>
       <c r="C17" t="n">
-        <v>1361.989716074603</v>
+        <v>988.2760455058774</v>
       </c>
       <c r="D17" t="n">
-        <v>1020.80571643599</v>
+        <v>647.092045867264</v>
       </c>
       <c r="E17" t="n">
-        <v>645.5744921313066</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="F17" t="n">
-        <v>238.3025227979596</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G17" t="n">
         <v>34.31465285444516</v>
@@ -5515,25 +5515,25 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J17" t="n">
-        <v>79.26440887602973</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K17" t="n">
         <v>253.897506719375</v>
       </c>
       <c r="L17" t="n">
-        <v>525.5283691389719</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M17" t="n">
-        <v>856.6460009292779</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N17" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O17" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P17" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q17" t="n">
         <v>1715.732642722258</v>
@@ -5554,13 +5554,13 @@
         <v>1715.732642722258</v>
       </c>
       <c r="W17" t="n">
-        <v>1715.732642722258</v>
+        <v>1374.423083302291</v>
       </c>
       <c r="X17" t="n">
-        <v>1715.732642722258</v>
+        <v>1374.423083302291</v>
       </c>
       <c r="Y17" t="n">
-        <v>1715.732642722258</v>
+        <v>988.2760455058774</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>304.5262490036893</v>
+        <v>639.7302989597495</v>
       </c>
       <c r="C18" t="n">
-        <v>304.5262490036893</v>
+        <v>450.3180246927132</v>
       </c>
       <c r="D18" t="n">
-        <v>304.5262490036893</v>
+        <v>289.5379084537449</v>
       </c>
       <c r="E18" t="n">
-        <v>304.5262490036893</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="F18" t="n">
-        <v>303.2750224629867</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="G18" t="n">
-        <v>153.8059888862266</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H18" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I18" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J18" t="n">
-        <v>54.40930111025869</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K18" t="n">
         <v>215.5091216889814</v>
       </c>
       <c r="L18" t="n">
-        <v>304.6946924676439</v>
+        <v>498.4142537443597</v>
       </c>
       <c r="M18" t="n">
-        <v>679.5863020207055</v>
+        <v>873.3058632974213</v>
       </c>
       <c r="N18" t="n">
-        <v>1082.820066520717</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O18" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P18" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q18" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R18" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S18" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="T18" t="n">
-        <v>1501.726349490193</v>
+        <v>1413.952574208507</v>
       </c>
       <c r="U18" t="n">
-        <v>1262.15322381774</v>
+        <v>1174.379448536054</v>
       </c>
       <c r="V18" t="n">
-        <v>1019.073505721374</v>
+        <v>1174.379448536054</v>
       </c>
       <c r="W18" t="n">
-        <v>749.6749364516653</v>
+        <v>904.9808792663451</v>
       </c>
       <c r="X18" t="n">
-        <v>530.1669420683617</v>
+        <v>904.9808792663451</v>
       </c>
       <c r="Y18" t="n">
-        <v>304.5262490036893</v>
+        <v>818.2661518866846</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.31465285444516</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="C19" t="n">
-        <v>34.31465285444516</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="D19" t="n">
-        <v>34.31465285444516</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="E19" t="n">
-        <v>34.31465285444516</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="F19" t="n">
-        <v>34.31465285444516</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="G19" t="n">
         <v>34.31465285444516</v>
@@ -5685,40 +5685,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N19" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O19" t="n">
-        <v>315.4306320098956</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P19" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q19" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R19" t="n">
-        <v>334.8576753800221</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="S19" t="n">
-        <v>334.8576753800221</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="T19" t="n">
-        <v>334.8576753800221</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="U19" t="n">
-        <v>43.32097474015933</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="V19" t="n">
-        <v>43.32097474015933</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="W19" t="n">
-        <v>43.32097474015933</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="X19" t="n">
-        <v>43.32097474015933</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="Y19" t="n">
-        <v>43.32097474015933</v>
+        <v>204.0671920298242</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>704.3418529197597</v>
+        <v>1158.001846131089</v>
       </c>
       <c r="C20" t="n">
-        <v>350.5989262721043</v>
+        <v>1158.001846131089</v>
       </c>
       <c r="D20" t="n">
-        <v>350.5989262721043</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="E20" t="n">
-        <v>350.5989262721043</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="F20" t="n">
-        <v>350.5989262721043</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G20" t="n">
-        <v>350.5989262721043</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H20" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I20" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J20" t="n">
-        <v>79.2644088760299</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K20" t="n">
-        <v>253.8975067193751</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L20" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M20" t="n">
         <v>856.6460009292779</v>
@@ -5776,28 +5776,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R20" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S20" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T20" t="n">
-        <v>1391.879729590324</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U20" t="n">
-        <v>1391.879729590324</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V20" t="n">
-        <v>1067.758736045726</v>
+        <v>1521.418729257054</v>
       </c>
       <c r="W20" t="n">
-        <v>1067.758736045726</v>
+        <v>1521.418729257054</v>
       </c>
       <c r="X20" t="n">
-        <v>704.3418529197597</v>
+        <v>1158.001846131089</v>
       </c>
       <c r="Y20" t="n">
-        <v>704.3418529197597</v>
+        <v>1158.001846131089</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>482.8268917365241</v>
+        <v>735.1274646897054</v>
       </c>
       <c r="C21" t="n">
-        <v>482.8268917365241</v>
+        <v>545.7151904226691</v>
       </c>
       <c r="D21" t="n">
-        <v>482.8268917365241</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="E21" t="n">
-        <v>309.2636878579385</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="F21" t="n">
-        <v>148.8359715751826</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="G21" t="n">
-        <v>34.31465285444516</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H21" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I21" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J21" t="n">
-        <v>54.40930111025869</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K21" t="n">
-        <v>215.5091216889814</v>
+        <v>112.3287381944633</v>
       </c>
       <c r="L21" t="n">
-        <v>498.4142537443596</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M21" t="n">
-        <v>873.3058632974212</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N21" t="n">
-        <v>1276.539627797432</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O21" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P21" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q21" t="n">
         <v>1715.732642722258</v>
@@ -5867,16 +5867,16 @@
         <v>995.3051791025987</v>
       </c>
       <c r="V21" t="n">
-        <v>752.2254610062328</v>
+        <v>960.7681577543779</v>
       </c>
       <c r="W21" t="n">
-        <v>482.8268917365241</v>
+        <v>960.7681577543779</v>
       </c>
       <c r="X21" t="n">
-        <v>482.8268917365241</v>
+        <v>960.7681577543779</v>
       </c>
       <c r="Y21" t="n">
-        <v>482.8268917365241</v>
+        <v>735.1274646897054</v>
       </c>
     </row>
     <row r="22">
@@ -5931,31 +5931,31 @@
         <v>334.8576753800221</v>
       </c>
       <c r="Q22" t="n">
-        <v>260.9755581809701</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R22" t="n">
-        <v>84.81980876651446</v>
+        <v>213.7256838291604</v>
       </c>
       <c r="S22" t="n">
-        <v>84.81980876651446</v>
+        <v>213.7256838291604</v>
       </c>
       <c r="T22" t="n">
-        <v>84.81980876651446</v>
+        <v>213.7256838291604</v>
       </c>
       <c r="U22" t="n">
-        <v>84.81980876651446</v>
+        <v>213.7256838291604</v>
       </c>
       <c r="V22" t="n">
-        <v>84.81980876651446</v>
+        <v>213.7256838291604</v>
       </c>
       <c r="W22" t="n">
-        <v>34.31465285444516</v>
+        <v>213.7256838291604</v>
       </c>
       <c r="X22" t="n">
-        <v>34.31465285444516</v>
+        <v>213.7256838291604</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.31465285444516</v>
+        <v>213.7256838291604</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>562.8815436069452</v>
+        <v>817.3352469236087</v>
       </c>
       <c r="C23" t="n">
-        <v>562.8815436069452</v>
+        <v>463.5923202759533</v>
       </c>
       <c r="D23" t="n">
-        <v>221.6975439683318</v>
+        <v>463.5923202759533</v>
       </c>
       <c r="E23" t="n">
-        <v>221.6975439683318</v>
+        <v>463.5923202759533</v>
       </c>
       <c r="F23" t="n">
-        <v>221.6975439683318</v>
+        <v>463.5923202759533</v>
       </c>
       <c r="G23" t="n">
-        <v>221.6975439683318</v>
+        <v>41.97761394594465</v>
       </c>
       <c r="H23" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I23" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J23" t="n">
-        <v>79.26440887602985</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K23" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L23" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389725</v>
       </c>
       <c r="M23" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292783</v>
       </c>
       <c r="N23" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O23" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P23" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q23" t="n">
         <v>1715.732642722258</v>
@@ -6019,22 +6019,22 @@
         <v>1413.548593210149</v>
       </c>
       <c r="T23" t="n">
-        <v>1195.201146295157</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="U23" t="n">
-        <v>942.6401640759908</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="V23" t="n">
-        <v>618.5191705313928</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="W23" t="n">
-        <v>562.8815436069452</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="X23" t="n">
-        <v>562.8815436069452</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="Y23" t="n">
-        <v>562.8815436069452</v>
+        <v>1195.201146295158</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>734.8757577959523</v>
+        <v>991.7985866786858</v>
       </c>
       <c r="C24" t="n">
-        <v>545.463483528916</v>
+        <v>879.7061105840106</v>
       </c>
       <c r="D24" t="n">
-        <v>384.6833672899477</v>
+        <v>718.9259943450423</v>
       </c>
       <c r="E24" t="n">
-        <v>211.1201634113621</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="F24" t="n">
-        <v>211.1201634113621</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="G24" t="n">
-        <v>61.65112983460205</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H24" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I24" t="n">
         <v>34.31465285444516</v>
@@ -6071,13 +6071,13 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K24" t="n">
-        <v>195.4144734331679</v>
+        <v>112.3287381944633</v>
       </c>
       <c r="L24" t="n">
-        <v>478.3196054885461</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M24" t="n">
-        <v>853.2112150416077</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N24" t="n">
         <v>1173.359244302914</v>
@@ -6092,28 +6092,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R24" t="n">
-        <v>1627.958867440572</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S24" t="n">
-        <v>1627.958867440572</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T24" t="n">
-        <v>1627.958867440572</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="U24" t="n">
-        <v>1627.958867440572</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="V24" t="n">
-        <v>1627.958867440572</v>
+        <v>991.7985866786858</v>
       </c>
       <c r="W24" t="n">
-        <v>1358.560298170863</v>
+        <v>991.7985866786858</v>
       </c>
       <c r="X24" t="n">
-        <v>1139.05230378756</v>
+        <v>991.7985866786858</v>
       </c>
       <c r="Y24" t="n">
-        <v>913.4116107228874</v>
+        <v>991.7985866786858</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C25" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D25" t="n">
-        <v>1569.083501054873</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E25" t="n">
-        <v>1425.976287709191</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K25" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L25" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M25" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N25" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O25" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="X25" t="n">
-        <v>1715.732642722258</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="Y25" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>388.0575795021006</v>
+        <v>1064.875876963951</v>
       </c>
       <c r="C26" t="n">
-        <v>34.31465285444516</v>
+        <v>711.1329503162957</v>
       </c>
       <c r="D26" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="E26" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="F26" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="G26" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H26" t="n">
         <v>34.31465285444516</v>
@@ -6226,22 +6226,22 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J26" t="n">
-        <v>79.26440887602973</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K26" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L26" t="n">
-        <v>525.5283691389719</v>
+        <v>525.5283691389725</v>
       </c>
       <c r="M26" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292784</v>
       </c>
       <c r="N26" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O26" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P26" t="n">
         <v>1650.639799716936</v>
@@ -6253,25 +6253,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S26" t="n">
-        <v>1715.732642722258</v>
+        <v>1607.344317423541</v>
       </c>
       <c r="T26" t="n">
-        <v>1715.732642722258</v>
+        <v>1388.996870508549</v>
       </c>
       <c r="U26" t="n">
-        <v>1715.732642722258</v>
+        <v>1388.996870508549</v>
       </c>
       <c r="V26" t="n">
-        <v>1391.61164917766</v>
+        <v>1064.875876963951</v>
       </c>
       <c r="W26" t="n">
-        <v>1050.302089757694</v>
+        <v>1064.875876963951</v>
       </c>
       <c r="X26" t="n">
-        <v>686.8852066317279</v>
+        <v>1064.875876963951</v>
       </c>
       <c r="Y26" t="n">
-        <v>686.8852066317279</v>
+        <v>1064.875876963951</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>251.6844975206135</v>
+        <v>734.3373412894325</v>
       </c>
       <c r="C27" t="n">
-        <v>62.27222325357727</v>
+        <v>544.9250670223962</v>
       </c>
       <c r="D27" t="n">
-        <v>62.27222325357727</v>
+        <v>384.1449507834279</v>
       </c>
       <c r="E27" t="n">
-        <v>62.27222325357727</v>
+        <v>210.5817469048424</v>
       </c>
       <c r="F27" t="n">
-        <v>62.27222325357727</v>
+        <v>50.15403062208648</v>
       </c>
       <c r="G27" t="n">
-        <v>62.27222325357727</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H27" t="n">
-        <v>62.27222325357727</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I27" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J27" t="n">
-        <v>54.40930111025869</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K27" t="n">
-        <v>54.40930111025869</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L27" t="n">
-        <v>337.3144331656369</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M27" t="n">
-        <v>712.2060427186984</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N27" t="n">
-        <v>1115.43980721871</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O27" t="n">
-        <v>1428.572841265604</v>
+        <v>1569.578013588513</v>
       </c>
       <c r="P27" t="n">
-        <v>1657.813205638054</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q27" t="n">
         <v>1715.732642722258</v>
@@ -6338,19 +6338,19 @@
         <v>1448.884598007117</v>
       </c>
       <c r="U27" t="n">
-        <v>1209.311472334664</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="V27" t="n">
-        <v>966.2317542382982</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="W27" t="n">
-        <v>696.8331849685895</v>
+        <v>1179.486028737409</v>
       </c>
       <c r="X27" t="n">
-        <v>477.3251905852859</v>
+        <v>959.9780343541049</v>
       </c>
       <c r="Y27" t="n">
-        <v>251.6844975206135</v>
+        <v>734.3373412894325</v>
       </c>
     </row>
     <row r="28">
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.4466444053068</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C28" t="n">
         <v>34.31465285444516</v>
@@ -6411,25 +6411,25 @@
         <v>334.8576753800221</v>
       </c>
       <c r="S28" t="n">
-        <v>334.8576753800221</v>
+        <v>257.5493975016237</v>
       </c>
       <c r="T28" t="n">
-        <v>334.8576753800221</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="U28" t="n">
-        <v>334.8576753800221</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="V28" t="n">
-        <v>334.8576753800221</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W28" t="n">
-        <v>334.8576753800221</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X28" t="n">
-        <v>334.8576753800221</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y28" t="n">
-        <v>334.8576753800221</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1497.385195807267</v>
+        <v>782.7706218264057</v>
       </c>
       <c r="C29" t="n">
-        <v>1497.385195807267</v>
+        <v>782.7706218264057</v>
       </c>
       <c r="D29" t="n">
-        <v>1497.385195807267</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="E29" t="n">
-        <v>1386.218517454924</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="F29" t="n">
-        <v>978.9465481215775</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G29" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H29" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I29" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J29" t="n">
-        <v>79.2644088760299</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K29" t="n">
         <v>253.8975067193751</v>
       </c>
       <c r="L29" t="n">
-        <v>525.5283691389725</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M29" t="n">
-        <v>856.6460009292784</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N29" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O29" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P29" t="n">
         <v>1650.639799716936</v>
@@ -6487,28 +6487,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R29" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S29" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T29" t="n">
-        <v>1497.385195807267</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="U29" t="n">
-        <v>1497.385195807267</v>
+        <v>1168.91765962282</v>
       </c>
       <c r="V29" t="n">
-        <v>1497.385195807267</v>
+        <v>1168.91765962282</v>
       </c>
       <c r="W29" t="n">
-        <v>1497.385195807267</v>
+        <v>1168.91765962282</v>
       </c>
       <c r="X29" t="n">
-        <v>1497.385195807267</v>
+        <v>1168.91765962282</v>
       </c>
       <c r="Y29" t="n">
-        <v>1497.385195807267</v>
+        <v>782.7706218264057</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>980.7026033525992</v>
+        <v>223.7269271214815</v>
       </c>
       <c r="C30" t="n">
-        <v>791.2903290855629</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D30" t="n">
-        <v>630.5102128465946</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E30" t="n">
-        <v>456.9470089680091</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F30" t="n">
-        <v>296.5192926852532</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G30" t="n">
-        <v>147.0502591084931</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H30" t="n">
         <v>34.31465285444516</v>
@@ -6545,49 +6545,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K30" t="n">
-        <v>112.3287381944633</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L30" t="n">
-        <v>395.2338702498415</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M30" t="n">
-        <v>770.1254798029031</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N30" t="n">
-        <v>1173.359244302914</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O30" t="n">
-        <v>1486.492278349808</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P30" t="n">
-        <v>1715.732642722258</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q30" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R30" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S30" t="n">
-        <v>1627.958867440573</v>
+        <v>1634.933320840051</v>
       </c>
       <c r="T30" t="n">
-        <v>1627.958867440573</v>
+        <v>1420.927027607985</v>
       </c>
       <c r="U30" t="n">
-        <v>1627.958867440573</v>
+        <v>1181.353901935532</v>
       </c>
       <c r="V30" t="n">
-        <v>1384.879149344207</v>
+        <v>938.2741838391661</v>
       </c>
       <c r="W30" t="n">
-        <v>1384.879149344207</v>
+        <v>668.8756145694574</v>
       </c>
       <c r="X30" t="n">
-        <v>1384.879149344207</v>
+        <v>449.3676201861538</v>
       </c>
       <c r="Y30" t="n">
-        <v>1159.238456279534</v>
+        <v>223.7269271214815</v>
       </c>
     </row>
     <row r="31">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.31465285444516</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="C31" t="n">
         <v>34.31465285444516</v>
@@ -6645,28 +6645,28 @@
         <v>334.8576753800221</v>
       </c>
       <c r="R31" t="n">
-        <v>260.76332841127</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="S31" t="n">
-        <v>34.31465285444516</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="T31" t="n">
-        <v>34.31465285444516</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="U31" t="n">
-        <v>34.31465285444516</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="V31" t="n">
-        <v>34.31465285444516</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="W31" t="n">
-        <v>34.31465285444516</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="X31" t="n">
-        <v>34.31465285444516</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="Y31" t="n">
-        <v>34.31465285444516</v>
+        <v>202.4532194928011</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>797.1133588230673</v>
+        <v>774.8405731945688</v>
       </c>
       <c r="C32" t="n">
-        <v>797.1133588230673</v>
+        <v>774.8405731945688</v>
       </c>
       <c r="D32" t="n">
-        <v>455.9293591844538</v>
+        <v>774.8405731945688</v>
       </c>
       <c r="E32" t="n">
-        <v>455.9293591844538</v>
+        <v>774.8405731945688</v>
       </c>
       <c r="F32" t="n">
-        <v>455.9293591844538</v>
+        <v>367.5686038612218</v>
       </c>
       <c r="G32" t="n">
         <v>34.31465285444516</v>
@@ -6724,28 +6724,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R32" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S32" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T32" t="n">
-        <v>1715.104894006798</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="U32" t="n">
-        <v>1462.543911787632</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="V32" t="n">
-        <v>1138.422918243034</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="W32" t="n">
-        <v>797.1133588230673</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="X32" t="n">
-        <v>797.1133588230673</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="Y32" t="n">
-        <v>797.1133588230673</v>
+        <v>774.8405731945688</v>
       </c>
     </row>
     <row r="33">
@@ -6755,7 +6755,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>125.4519795702337</v>
+        <v>223.7269271214815</v>
       </c>
       <c r="C33" t="n">
         <v>34.31465285444516</v>
@@ -6803,28 +6803,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R33" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S33" t="n">
-        <v>1536.658373288803</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T33" t="n">
-        <v>1322.652080056737</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="U33" t="n">
-        <v>1083.078954384284</v>
+        <v>1181.353901935532</v>
       </c>
       <c r="V33" t="n">
-        <v>839.9992362879184</v>
+        <v>938.2741838391661</v>
       </c>
       <c r="W33" t="n">
-        <v>570.6006670182097</v>
+        <v>668.8756145694574</v>
       </c>
       <c r="X33" t="n">
-        <v>351.0926726349061</v>
+        <v>449.3676201861538</v>
       </c>
       <c r="Y33" t="n">
-        <v>125.4519795702337</v>
+        <v>223.7269271214815</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K34" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L34" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M34" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N34" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O34" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S34" t="n">
-        <v>1489.283967165434</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T34" t="n">
-        <v>1415.189620196681</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U34" t="n">
-        <v>1415.189620196681</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="V34" t="n">
-        <v>1415.189620196681</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="W34" t="n">
-        <v>1415.189620196681</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="X34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>882.7705792889349</v>
+        <v>951.719705554296</v>
       </c>
       <c r="C35" t="n">
-        <v>529.0276526412795</v>
+        <v>951.719705554296</v>
       </c>
       <c r="D35" t="n">
-        <v>529.0276526412795</v>
+        <v>951.719705554296</v>
       </c>
       <c r="E35" t="n">
-        <v>529.0276526412795</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F35" t="n">
-        <v>121.7556833079325</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G35" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H35" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I35" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J35" t="n">
-        <v>79.2644088760299</v>
+        <v>79.2644088760303</v>
       </c>
       <c r="K35" t="n">
-        <v>253.8975067193751</v>
+        <v>253.897506719376</v>
       </c>
       <c r="L35" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389729</v>
       </c>
       <c r="M35" t="n">
-        <v>856.6460009292782</v>
+        <v>856.6460009292789</v>
       </c>
       <c r="N35" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157784</v>
       </c>
       <c r="O35" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P35" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q35" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R35" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S35" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="T35" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="U35" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="V35" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="W35" t="n">
-        <v>1268.917617085349</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="X35" t="n">
-        <v>1268.917617085349</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="Y35" t="n">
-        <v>882.7705792889349</v>
+        <v>1329.585604925845</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>740.5910611736258</v>
+        <v>125.4519795702342</v>
       </c>
       <c r="C36" t="n">
-        <v>740.5910611736258</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="D36" t="n">
-        <v>718.9259943450423</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="E36" t="n">
-        <v>545.3627904664568</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F36" t="n">
-        <v>384.9350741837009</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G36" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I36" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J36" t="n">
-        <v>54.40930111025869</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K36" t="n">
-        <v>215.5091216889814</v>
+        <v>112.3287381944638</v>
       </c>
       <c r="L36" t="n">
-        <v>498.4142537443596</v>
+        <v>395.233870249842</v>
       </c>
       <c r="M36" t="n">
-        <v>873.3058632974212</v>
+        <v>770.1254798029036</v>
       </c>
       <c r="N36" t="n">
-        <v>1276.539627797432</v>
+        <v>1173.359244302915</v>
       </c>
       <c r="O36" t="n">
-        <v>1589.672661844326</v>
+        <v>1486.492278349809</v>
       </c>
       <c r="P36" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="Q36" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R36" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S36" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T36" t="n">
-        <v>1448.884598007117</v>
+        <v>1322.652080056738</v>
       </c>
       <c r="U36" t="n">
-        <v>1209.311472334664</v>
+        <v>1083.078954384285</v>
       </c>
       <c r="V36" t="n">
-        <v>966.2317542382982</v>
+        <v>839.9992362879188</v>
       </c>
       <c r="W36" t="n">
-        <v>966.2317542382982</v>
+        <v>570.6006670182102</v>
       </c>
       <c r="X36" t="n">
-        <v>966.2317542382982</v>
+        <v>351.0926726349065</v>
       </c>
       <c r="Y36" t="n">
-        <v>740.5910611736258</v>
+        <v>125.4519795702342</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="C37" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="D37" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="E37" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F37" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G37" t="n">
-        <v>1545.980103546879</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K37" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L37" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M37" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N37" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O37" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R37" t="n">
-        <v>1715.732642722258</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="S37" t="n">
-        <v>1715.732642722258</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="T37" t="n">
-        <v>1715.732642722258</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="U37" t="n">
-        <v>1715.732642722258</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="V37" t="n">
-        <v>1715.732642722258</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="W37" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="X37" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="Y37" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444518</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1337.866743350709</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="C38" t="n">
-        <v>984.123816703054</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="D38" t="n">
-        <v>642.9398170644406</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="E38" t="n">
         <v>441.5866221877922</v>
@@ -7174,22 +7174,22 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J38" t="n">
-        <v>79.26440887602973</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K38" t="n">
         <v>253.897506719375</v>
       </c>
       <c r="L38" t="n">
-        <v>525.5283691389719</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M38" t="n">
-        <v>856.6460009292779</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N38" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O38" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P38" t="n">
         <v>1650.639799716936</v>
@@ -7198,28 +7198,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R38" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S38" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T38" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U38" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="V38" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="W38" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="X38" t="n">
-        <v>1715.732642722258</v>
+        <v>1246.810293379349</v>
       </c>
       <c r="Y38" t="n">
-        <v>1715.732642722258</v>
+        <v>1194.683745864024</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1069.118384851047</v>
+        <v>125.4519795702335</v>
       </c>
       <c r="C39" t="n">
-        <v>879.7061105840106</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D39" t="n">
-        <v>718.9259943450423</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E39" t="n">
-        <v>545.3627904664568</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F39" t="n">
-        <v>384.9350741837009</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G39" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I39" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J39" t="n">
-        <v>54.40930111025869</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K39" t="n">
-        <v>215.5091216889814</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L39" t="n">
-        <v>498.4142537443596</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M39" t="n">
-        <v>873.3058632974212</v>
+        <v>853.2112150416077</v>
       </c>
       <c r="N39" t="n">
-        <v>1082.820066520717</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O39" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P39" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q39" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R39" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S39" t="n">
-        <v>1627.958867440573</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T39" t="n">
-        <v>1517.052807047691</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U39" t="n">
-        <v>1517.052807047691</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V39" t="n">
-        <v>1517.052807047691</v>
+        <v>839.9992362879182</v>
       </c>
       <c r="W39" t="n">
-        <v>1247.654237777982</v>
+        <v>570.6006670182095</v>
       </c>
       <c r="X39" t="n">
-        <v>1247.654237777982</v>
+        <v>351.0926726349059</v>
       </c>
       <c r="Y39" t="n">
-        <v>1247.654237777982</v>
+        <v>125.4519795702335</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K40" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L40" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M40" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N40" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O40" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="W40" t="n">
-        <v>1715.732642722258</v>
+        <v>41.61453690594612</v>
       </c>
       <c r="X40" t="n">
-        <v>1634.524239200892</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1050.302089757694</v>
+        <v>475.7576070909785</v>
       </c>
       <c r="C41" t="n">
-        <v>1050.302089757694</v>
+        <v>475.7576070909785</v>
       </c>
       <c r="D41" t="n">
-        <v>1050.302089757694</v>
+        <v>475.7576070909785</v>
       </c>
       <c r="E41" t="n">
-        <v>1050.302089757694</v>
+        <v>100.5263827862955</v>
       </c>
       <c r="F41" t="n">
-        <v>978.9465481215775</v>
+        <v>100.5263827862955</v>
       </c>
       <c r="G41" t="n">
-        <v>557.3318417915689</v>
+        <v>100.5263827862955</v>
       </c>
       <c r="H41" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I41" t="n">
         <v>34.31465285444516</v>
@@ -7438,25 +7438,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S41" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T41" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="U41" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="V41" t="n">
-        <v>1391.61164917766</v>
+        <v>1194.933065882494</v>
       </c>
       <c r="W41" t="n">
-        <v>1050.302089757694</v>
+        <v>853.6235064625273</v>
       </c>
       <c r="X41" t="n">
-        <v>1050.302089757694</v>
+        <v>853.6235064625273</v>
       </c>
       <c r="Y41" t="n">
-        <v>1050.302089757694</v>
+        <v>853.6235064625273</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>718.4979635217912</v>
+        <v>500.2659167682174</v>
       </c>
       <c r="C42" t="n">
-        <v>529.0856892547549</v>
+        <v>500.2659167682174</v>
       </c>
       <c r="D42" t="n">
-        <v>368.3055730157866</v>
+        <v>463.7027387457426</v>
       </c>
       <c r="E42" t="n">
-        <v>194.7423691372011</v>
+        <v>463.7027387457426</v>
       </c>
       <c r="F42" t="n">
-        <v>34.31465285444516</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="G42" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H42" t="n">
         <v>34.31465285444516</v>
@@ -7496,16 +7496,16 @@
         <v>195.4144734331679</v>
       </c>
       <c r="L42" t="n">
-        <v>395.2338702498411</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M42" t="n">
-        <v>770.1254798029026</v>
+        <v>853.2112150416077</v>
       </c>
       <c r="N42" t="n">
-        <v>1173.359244302914</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O42" t="n">
-        <v>1486.492278349808</v>
+        <v>1569.578013588513</v>
       </c>
       <c r="P42" t="n">
         <v>1715.732642722258</v>
@@ -7517,25 +7517,25 @@
         <v>1627.958867440572</v>
       </c>
       <c r="S42" t="n">
-        <v>1611.581073166411</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T42" t="n">
-        <v>1611.581073166411</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="U42" t="n">
-        <v>1611.581073166411</v>
+        <v>995.3051791025985</v>
       </c>
       <c r="V42" t="n">
-        <v>1611.581073166411</v>
+        <v>995.3051791025985</v>
       </c>
       <c r="W42" t="n">
-        <v>1342.182503896702</v>
+        <v>725.9066098328898</v>
       </c>
       <c r="X42" t="n">
-        <v>1122.674509513399</v>
+        <v>725.9066098328898</v>
       </c>
       <c r="Y42" t="n">
-        <v>897.0338164487264</v>
+        <v>500.2659167682174</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.61453690594612</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C43" t="n">
-        <v>41.61453690594612</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D43" t="n">
-        <v>41.61453690594612</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E43" t="n">
-        <v>41.61453690594612</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F43" t="n">
         <v>34.31465285444516</v>
@@ -7602,19 +7602,19 @@
         <v>334.8576753800222</v>
       </c>
       <c r="U43" t="n">
-        <v>334.8576753800222</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="V43" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W43" t="n">
-        <v>41.61453690594612</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X43" t="n">
-        <v>41.61453690594612</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.61453690594612</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>750.7298767977416</v>
+        <v>745.1801749823653</v>
       </c>
       <c r="C44" t="n">
-        <v>750.7298767977416</v>
+        <v>745.1801749823653</v>
       </c>
       <c r="D44" t="n">
-        <v>409.5458771591282</v>
+        <v>745.1801749823653</v>
       </c>
       <c r="E44" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="F44" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="G44" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H44" t="n">
         <v>34.31465285444516</v>
@@ -7648,16 +7648,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J44" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602965</v>
       </c>
       <c r="K44" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L44" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M44" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N44" t="n">
         <v>1186.279026157783</v>
@@ -7678,22 +7678,22 @@
         <v>1715.732642722258</v>
       </c>
       <c r="T44" t="n">
-        <v>1715.732642722258</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="U44" t="n">
-        <v>1715.732642722258</v>
+        <v>1244.8242135881</v>
       </c>
       <c r="V44" t="n">
-        <v>1715.732642722258</v>
+        <v>1244.8242135881</v>
       </c>
       <c r="W44" t="n">
-        <v>1715.732642722258</v>
+        <v>903.5146541681338</v>
       </c>
       <c r="X44" t="n">
-        <v>1514.742813965704</v>
+        <v>903.5146541681338</v>
       </c>
       <c r="Y44" t="n">
-        <v>1128.59577616929</v>
+        <v>745.1801749823653</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>637.930266936308</v>
+        <v>125.4519795702335</v>
       </c>
       <c r="C45" t="n">
-        <v>637.930266936308</v>
+        <v>125.4519795702335</v>
       </c>
       <c r="D45" t="n">
-        <v>637.930266936308</v>
+        <v>125.4519795702335</v>
       </c>
       <c r="E45" t="n">
-        <v>464.3670630577225</v>
+        <v>125.4519795702335</v>
       </c>
       <c r="F45" t="n">
-        <v>303.9393467749666</v>
+        <v>125.4519795702335</v>
       </c>
       <c r="G45" t="n">
-        <v>154.4703131982065</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I45" t="n">
         <v>34.31465285444516</v>
@@ -7739,13 +7739,13 @@
         <v>873.3058632974213</v>
       </c>
       <c r="N45" t="n">
-        <v>1173.359244302914</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O45" t="n">
-        <v>1486.492278349808</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P45" t="n">
-        <v>1715.732642722258</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q45" t="n">
         <v>1715.732642722258</v>
@@ -7763,16 +7763,16 @@
         <v>1083.078954384284</v>
       </c>
       <c r="V45" t="n">
-        <v>1083.078954384284</v>
+        <v>839.9992362879182</v>
       </c>
       <c r="W45" t="n">
-        <v>1083.078954384284</v>
+        <v>570.6006670182095</v>
       </c>
       <c r="X45" t="n">
-        <v>863.5709600009804</v>
+        <v>351.0926726349059</v>
       </c>
       <c r="Y45" t="n">
-        <v>637.930266936308</v>
+        <v>125.4519795702335</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C46" t="n">
-        <v>317.752050259164</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D46" t="n">
-        <v>317.752050259164</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E46" t="n">
-        <v>174.6448369134822</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F46" t="n">
         <v>34.31465285444516</v>
@@ -7836,22 +7836,22 @@
         <v>334.8576753800222</v>
       </c>
       <c r="T46" t="n">
-        <v>334.8576753800222</v>
+        <v>111.6229307328436</v>
       </c>
       <c r="U46" t="n">
-        <v>334.8576753800222</v>
+        <v>111.6229307328436</v>
       </c>
       <c r="V46" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W46" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X46" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y46" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
   </sheetData>
@@ -8771,16 +8771,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>207.355310728366</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526882</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9005,19 +9005,19 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K15" t="n">
         <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>44.62821923470651</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>310.6138585746227</v>
+        <v>226.6888734850216</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9026,7 +9026,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9248,13 +9248,13 @@
         <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
-        <v>44.62821923470651</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>310.6138585746227</v>
+        <v>206.3912489841998</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9263,7 +9263,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9479,10 +9479,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K21" t="n">
-        <v>171.373473584151</v>
+        <v>87.4484884945504</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9494,13 +9494,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O21" t="n">
-        <v>59.54645836938565</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P21" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9716,10 +9716,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>61.40936639976317</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K24" t="n">
-        <v>171.373473584151</v>
+        <v>87.4484884945504</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9728,7 +9728,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>226.6888734850216</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -9737,7 +9737,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.67636752131754</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9953,10 +9953,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K27" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L27" t="n">
         <v>240.3045437566416</v>
@@ -9971,10 +9971,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P27" t="n">
-        <v>206.3638740786793</v>
+        <v>122.4388889890789</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.1808494245546</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10193,7 +10193,7 @@
         <v>61.40936639976319</v>
       </c>
       <c r="K30" t="n">
-        <v>87.4484884945504</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L30" t="n">
         <v>240.3045437566416</v>
@@ -10202,7 +10202,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N30" t="n">
-        <v>310.6138585746227</v>
+        <v>135.2351585535095</v>
       </c>
       <c r="O30" t="n">
         <v>255.2227828913207</v>
@@ -10211,7 +10211,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.67636752131756</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10664,10 +10664,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K36" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849455086</v>
       </c>
       <c r="L36" t="n">
         <v>240.3045437566416</v>
@@ -10682,7 +10682,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P36" t="n">
-        <v>102.1412644882571</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q36" t="n">
         <v>44.67636752131756</v>
@@ -10901,7 +10901,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K39" t="n">
         <v>171.373473584151</v>
@@ -10913,7 +10913,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N39" t="n">
-        <v>114.9375340526877</v>
+        <v>226.6888734850216</v>
       </c>
       <c r="O39" t="n">
         <v>255.2227828913207</v>
@@ -10922,7 +10922,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11144,7 +11144,7 @@
         <v>171.373473584151</v>
       </c>
       <c r="L42" t="n">
-        <v>156.3795586670405</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M42" t="n">
         <v>301.77688131</v>
@@ -11156,7 +11156,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P42" t="n">
-        <v>206.3638740786793</v>
+        <v>122.4388889890784</v>
       </c>
       <c r="Q42" t="n">
         <v>44.67636752131754</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109.5746066315038</v>
+        <v>109.5746066315036</v>
       </c>
       <c r="K44" t="n">
         <v>210.0462273461148</v>
@@ -11387,7 +11387,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N45" t="n">
-        <v>206.3912489841998</v>
+        <v>114.9375340526873</v>
       </c>
       <c r="O45" t="n">
         <v>255.2227828913207</v>
@@ -11396,7 +11396,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.67636752131754</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -23263,19 +23263,19 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D11" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
-        <v>403.1992496400135</v>
+        <v>193.7584636167421</v>
       </c>
       <c r="G11" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H11" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>185.5090622027478</v>
@@ -23314,19 +23314,19 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>90.7265031306876</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="12">
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23348,13 +23348,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>146.4549166675606</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>157.7081898833352</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="13">
@@ -23433,13 +23433,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H13" t="n">
-        <v>82.56286578368646</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.14329602706151</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>174.3941919203111</v>
@@ -23478,7 +23478,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W13" t="n">
-        <v>290.3107070893353</v>
+        <v>65.91641081607577</v>
       </c>
       <c r="X13" t="n">
         <v>221.9194554082425</v>
@@ -23503,19 +23503,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E14" t="n">
-        <v>149.7103396017492</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>43.08804417731682</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>359.7827142947061</v>
@@ -23585,16 +23585,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>118.2964226714636</v>
+        <v>38.57453326670215</v>
       </c>
       <c r="I15" t="n">
-        <v>77.51353528374514</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23633,7 +23633,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="16">
@@ -23670,13 +23670,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H16" t="n">
-        <v>82.56286578368646</v>
+        <v>152.8561088221388</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.14329602706151</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R16" t="n">
         <v>174.3941919203111</v>
@@ -23715,7 +23715,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W16" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>221.9194554082425</v>
@@ -23734,19 +23734,19 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>168.0285426189591</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>215.4505680226293</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H17" t="n">
         <v>332.2779548450047</v>
@@ -23794,13 +23794,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y17" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>157.5847248446328</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I18" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>177.283526739121</v>
@@ -23870,16 +23870,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>137.5367060281617</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.7006619981111</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C19" t="n">
         <v>166.4571809719723</v>
@@ -23904,7 +23904,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>160.0829940331247</v>
@@ -23934,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.14329602706151</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R19" t="n">
-        <v>174.3941919203111</v>
+        <v>44.91161340361509</v>
       </c>
       <c r="S19" t="n">
         <v>224.1841888012565</v>
@@ -23946,7 +23946,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23971,25 +23971,25 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H20" t="n">
-        <v>204.6655863642699</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S20" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U20" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>128.5090092786001</v>
       </c>
       <c r="W20" t="n">
         <v>337.8964638257669</v>
@@ -24050,25 +24050,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>34.59823770746242</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24107,16 +24107,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>206.4572697806636</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>166.4571809719723</v>
@@ -24171,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.47352028495803</v>
       </c>
       <c r="S22" t="n">
         <v>224.1841888012565</v>
@@ -24189,7 +24189,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W22" t="n">
-        <v>240.3106027363867</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X22" t="n">
         <v>221.9194554082425</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
         <v>371.4789120616362</v>
@@ -24220,13 +24220,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>332.2779548450047</v>
+        <v>324.6916233644202</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,13 +24262,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>282.8152131705638</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
         <v>359.7827142947061</v>
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>76.54660019063755</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24296,16 +24296,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>91.23331046110829</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>237.1773944157285</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -24369,13 +24369,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F25" t="n">
-        <v>128.2480813810612</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
         <v>168.0550137836253</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.1432960270615</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R25" t="n">
         <v>174.3941919203111</v>
@@ -24429,10 +24429,10 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X25" t="n">
-        <v>221.9194554082425</v>
+        <v>141.5231359220898</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>78.24788951950228</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>371.4789120616362</v>
@@ -24460,7 +24460,7 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H26" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>185.5090622027478</v>
@@ -24493,10 +24493,10 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S26" t="n">
-        <v>194.7117974622146</v>
+        <v>87.40735541648446</v>
       </c>
       <c r="T26" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.0353723969745</v>
@@ -24505,10 +24505,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
         <v>382.2855674184499</v>
@@ -24527,22 +24527,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>147.9743432409925</v>
+        <v>132.2933592510276</v>
       </c>
       <c r="H27" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I27" t="n">
-        <v>53.16545650836626</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24578,10 +24578,10 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>46.5365093366193</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
         <v>145.1826502507107</v>
@@ -24651,10 +24651,10 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S28" t="n">
-        <v>224.1841888012565</v>
+        <v>147.6489937016422</v>
       </c>
       <c r="T28" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>288.6213336334641</v>
@@ -24685,22 +24685,22 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>261.4239004928174</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0353723969745</v>
+        <v>7.850748145518537</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24748,7 +24748,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24758,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H30" t="n">
-        <v>6.688172479956194</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I30" t="n">
         <v>80.84345120350704</v>
@@ -24806,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S30" t="n">
-        <v>177.283526739121</v>
+        <v>97.29219807573531</v>
       </c>
       <c r="T30" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>145.1826502507107</v>
@@ -24885,10 +24885,10 @@
         <v>73.14329602706151</v>
       </c>
       <c r="R31" t="n">
-        <v>101.0407884212465</v>
+        <v>43.31378059196228</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T31" t="n">
         <v>221.0023972007068</v>
@@ -24922,16 +24922,16 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>87.47714776999959</v>
       </c>
       <c r="H32" t="n">
         <v>332.2779548450047</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>215.5425012175361</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24998,7 +24998,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>97.29219807573524</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25052,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>184.1882356046041</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T34" t="n">
-        <v>147.6489937016421</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25140,7 +25140,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X34" t="n">
-        <v>221.9194554082425</v>
+        <v>213.0031967413855</v>
       </c>
       <c r="Y34" t="n">
         <v>217.1412728141684</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
-        <v>371.4789120616362</v>
+        <v>283.8457187955059</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>330.8319391177561</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>332.2779548450047</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S35" t="n">
         <v>194.7117974622146</v>
@@ -25216,7 +25216,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
         <v>359.7827142947061</v>
@@ -25235,25 +25235,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>97.2921980757348</v>
       </c>
       <c r="D36" t="n">
-        <v>137.7238989162809</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25295,10 +25295,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H37" t="n">
-        <v>30.60041551642877</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I37" t="n">
         <v>145.433169315347</v>
@@ -25359,7 +25359,7 @@
         <v>73.14329602706151</v>
       </c>
       <c r="R37" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>224.1841888012565</v>
@@ -25374,7 +25374,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>290.3107070893353</v>
+        <v>167.1673067093253</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -25393,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
-        <v>172.1392491337542</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>194.7117974622146</v>
@@ -25456,10 +25456,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.2855674184499</v>
+        <v>330.6802853782777</v>
       </c>
     </row>
     <row r="39">
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>97.29219807573547</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S39" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>102.0692305107917</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.14329602706151</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R40" t="n">
         <v>174.3941919203111</v>
@@ -25611,13 +25611,13 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>141.5231359220896</v>
+        <v>214.6925701972566</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>350.2054973811788</v>
@@ -25636,19 +25636,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>332.5572634202584</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>266.7283422124729</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S41" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>216.1639724458418</v>
@@ -25706,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>122.9747688343285</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>80.84345120350704</v>
@@ -25757,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>161.0695104077011</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>131.6999970074607</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
         <v>168.0550137836253</v>
@@ -25842,13 +25842,13 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>245.1090151844499</v>
+        <v>236.1927565175928</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H44" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>185.5090622027478</v>
@@ -25918,22 +25918,22 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T44" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>160.8027838257179</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>225.5344330245391</v>
       </c>
     </row>
     <row r="45">
@@ -25952,19 +25952,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>57.74838979236203</v>
       </c>
       <c r="H45" t="n">
-        <v>80.18577013464697</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26003,10 +26003,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
-        <v>149.5226121023227</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
         <v>168.0550137836253</v>
@@ -26076,13 +26076,13 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T46" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>288.6213336334641</v>
       </c>
       <c r="V46" t="n">
-        <v>245.1090151844499</v>
+        <v>168.5738200848354</v>
       </c>
       <c r="W46" t="n">
         <v>290.3107070893353</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>583409.9414293988</v>
+        <v>583409.941429399</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>583409.9414293988</v>
+        <v>583409.941429399</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>583409.9414293988</v>
+        <v>583409.941429399</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>583409.9414293988</v>
+        <v>583409.9414293987</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>583409.9414293987</v>
+        <v>583409.9414293988</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>583409.9414293988</v>
+        <v>583409.941429399</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>583409.9414293987</v>
+        <v>583409.9414293988</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595304.0967441107</v>
+        <v>595304.0967441105</v>
       </c>
       <c r="C2" t="n">
-        <v>595304.0967441106</v>
+        <v>595304.0967441105</v>
       </c>
       <c r="D2" t="n">
         <v>595304.0967441103</v>
@@ -26325,13 +26325,13 @@
         <v>338123.8689204557</v>
       </c>
       <c r="F2" t="n">
-        <v>338123.8689204558</v>
+        <v>338123.8689204559</v>
       </c>
       <c r="G2" t="n">
         <v>338123.8689204557</v>
       </c>
       <c r="H2" t="n">
-        <v>338123.8689204559</v>
+        <v>338123.8689204557</v>
       </c>
       <c r="I2" t="n">
         <v>338123.8689204559</v>
@@ -26343,19 +26343,19 @@
         <v>338123.8689204559</v>
       </c>
       <c r="L2" t="n">
-        <v>338123.8689204559</v>
+        <v>338123.8689204558</v>
       </c>
       <c r="M2" t="n">
         <v>338123.8689204557</v>
       </c>
       <c r="N2" t="n">
+        <v>338123.8689204557</v>
+      </c>
+      <c r="O2" t="n">
         <v>338123.8689204556</v>
       </c>
-      <c r="O2" t="n">
-        <v>338123.8689204558</v>
-      </c>
       <c r="P2" t="n">
-        <v>338123.8689204557</v>
+        <v>338123.8689204561</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>497053.1518174926</v>
+        <v>497053.1518174924</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.031184219755233e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424945.6323940752</v>
+        <v>424945.6323940753</v>
       </c>
       <c r="C4" t="n">
-        <v>424945.6323940752</v>
+        <v>424945.6323940753</v>
       </c>
       <c r="D4" t="n">
-        <v>424945.6323940752</v>
+        <v>424945.6323940753</v>
       </c>
       <c r="E4" t="n">
         <v>45238.1088129386</v>
@@ -26456,7 +26456,7 @@
         <v>45238.1088129386</v>
       </c>
       <c r="O4" t="n">
-        <v>45238.10881293859</v>
+        <v>45238.1088129386</v>
       </c>
       <c r="P4" t="n">
         <v>45238.1088129386</v>
@@ -26478,19 +26478,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="F5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="G5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="H5" t="n">
         <v>36091.33751189046</v>
       </c>
       <c r="I5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="J5" t="n">
         <v>36091.33751189046</v>
@@ -26502,7 +26502,7 @@
         <v>36091.33751189046</v>
       </c>
       <c r="M5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189047</v>
       </c>
       <c r="N5" t="n">
         <v>36091.33751189046</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>136730.8643500355</v>
+        <v>136686.2005079833</v>
       </c>
       <c r="C6" t="n">
-        <v>136730.8643500354</v>
+        <v>136686.2005079833</v>
       </c>
       <c r="D6" t="n">
-        <v>136730.8643500351</v>
+        <v>136686.2005079832</v>
       </c>
       <c r="E6" t="n">
-        <v>-240258.7292218659</v>
+        <v>-249828.586687016</v>
       </c>
       <c r="F6" t="n">
-        <v>256794.4225956268</v>
+        <v>247224.5651304766</v>
       </c>
       <c r="G6" t="n">
-        <v>256794.4225956266</v>
+        <v>247224.5651304765</v>
       </c>
       <c r="H6" t="n">
-        <v>256794.4225956268</v>
+        <v>247224.5651304763</v>
       </c>
       <c r="I6" t="n">
-        <v>256794.4225956268</v>
+        <v>247224.5651304766</v>
       </c>
       <c r="J6" t="n">
-        <v>256794.4225956267</v>
+        <v>247224.5651304764</v>
       </c>
       <c r="K6" t="n">
-        <v>256794.4225956268</v>
+        <v>247224.5651304766</v>
       </c>
       <c r="L6" t="n">
-        <v>256794.4225956268</v>
+        <v>247224.5651304765</v>
       </c>
       <c r="M6" t="n">
-        <v>149902.5632213873</v>
+        <v>140332.7057562371</v>
       </c>
       <c r="N6" t="n">
-        <v>256794.4225956265</v>
+        <v>247224.5651304764</v>
       </c>
       <c r="O6" t="n">
-        <v>256794.4225956268</v>
+        <v>247224.5651304763</v>
       </c>
       <c r="P6" t="n">
-        <v>256794.4225956267</v>
+        <v>247224.5651304768</v>
       </c>
     </row>
   </sheetData>
@@ -26749,16 +26749,16 @@
         <v>459.2752909409236</v>
       </c>
       <c r="F3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="G3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="H3" t="n">
         <v>459.2752909409236</v>
       </c>
       <c r="I3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="J3" t="n">
         <v>459.2752909409236</v>
@@ -26773,7 +26773,7 @@
         <v>459.2752909409236</v>
       </c>
       <c r="N3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="O3" t="n">
         <v>459.2752909409237</v>
@@ -26801,16 +26801,16 @@
         <v>428.9331606805646</v>
       </c>
       <c r="F4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="G4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="H4" t="n">
         <v>428.9331606805646</v>
       </c>
       <c r="I4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="J4" t="n">
         <v>428.9331606805646</v>
@@ -26822,10 +26822,10 @@
         <v>428.9331606805646</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805647</v>
       </c>
       <c r="N4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="O4" t="n">
         <v>428.9331606805645</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.346708623213883e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,19 +31755,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H11" t="n">
-        <v>18.90875607376375</v>
+        <v>18.90875607376374</v>
       </c>
       <c r="I11" t="n">
-        <v>71.18074634773855</v>
+        <v>71.18074634773853</v>
       </c>
       <c r="J11" t="n">
-        <v>156.7051908522502</v>
+        <v>156.7051908522501</v>
       </c>
       <c r="K11" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L11" t="n">
-        <v>291.365167739336</v>
+        <v>291.3651677393359</v>
       </c>
       <c r="M11" t="n">
         <v>324.1998891675596</v>
@@ -31776,10 +31776,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O11" t="n">
-        <v>311.0863102573771</v>
+        <v>311.086310257377</v>
       </c>
       <c r="P11" t="n">
-        <v>265.5049685685166</v>
+        <v>265.5049685685165</v>
       </c>
       <c r="Q11" t="n">
         <v>199.3831741692328</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9878751540993452</v>
+        <v>0.9878751540993451</v>
       </c>
       <c r="H12" t="n">
-        <v>9.540794251433152</v>
+        <v>9.54079425143315</v>
       </c>
       <c r="I12" t="n">
-        <v>34.01236824420992</v>
+        <v>34.01236824420991</v>
       </c>
       <c r="J12" t="n">
-        <v>93.33253813357017</v>
+        <v>93.33253813357015</v>
       </c>
       <c r="K12" t="n">
         <v>159.5201734582263</v>
@@ -31852,10 +31852,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N12" t="n">
-        <v>256.9298629953381</v>
+        <v>256.929862995338</v>
       </c>
       <c r="O12" t="n">
-        <v>235.0406293176631</v>
+        <v>235.040629317663</v>
       </c>
       <c r="P12" t="n">
         <v>188.640826575339</v>
@@ -31864,13 +31864,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R12" t="n">
-        <v>61.3349152694313</v>
+        <v>61.33491526943129</v>
       </c>
       <c r="S12" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T12" t="n">
-        <v>3.981830116742535</v>
+        <v>3.981830116742534</v>
       </c>
       <c r="U12" t="n">
         <v>0.06499178645390431</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8282013443196983</v>
+        <v>0.8282013443196982</v>
       </c>
       <c r="H13" t="n">
-        <v>7.363462861315141</v>
+        <v>7.36346286131514</v>
       </c>
       <c r="I13" t="n">
-        <v>24.90627315463239</v>
+        <v>24.90627315463238</v>
       </c>
       <c r="J13" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K13" t="n">
-        <v>96.22193800368856</v>
+        <v>96.22193800368855</v>
       </c>
       <c r="L13" t="n">
         <v>123.1309525909486</v>
@@ -31931,7 +31931,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N13" t="n">
-        <v>126.7373929903045</v>
+        <v>126.7373929903044</v>
       </c>
       <c r="O13" t="n">
         <v>117.0624954680243</v>
@@ -31940,16 +31940,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.35056893207947</v>
+        <v>69.35056893207945</v>
       </c>
       <c r="R13" t="n">
-        <v>37.2389440818657</v>
+        <v>37.23894408186569</v>
       </c>
       <c r="S13" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T13" t="n">
-        <v>3.538678471184165</v>
+        <v>3.538678471184164</v>
       </c>
       <c r="U13" t="n">
         <v>0.0451746187810745</v>
@@ -32001,16 +32001,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K14" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L14" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M14" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N14" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O14" t="n">
         <v>311.0863102573771</v>
@@ -32019,16 +32019,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q14" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R14" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S14" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T14" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U14" t="n">
         <v>0.1477066262322567</v>
@@ -32068,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9878751540993452</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H15" t="n">
-        <v>9.540794251433152</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I15" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J15" t="n">
-        <v>93.33253813357017</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K15" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L15" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M15" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N15" t="n">
         <v>256.9298629953381</v>
@@ -32101,16 +32101,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R15" t="n">
-        <v>61.3349152694313</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S15" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T15" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8282013443196983</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H16" t="n">
-        <v>7.363462861315141</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I16" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J16" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K16" t="n">
-        <v>96.22193800368856</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L16" t="n">
         <v>123.1309525909486</v>
@@ -32177,7 +32177,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.35056893207947</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R16" t="n">
         <v>37.2389440818657</v>
@@ -32189,7 +32189,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32238,16 +32238,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K17" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L17" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M17" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N17" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O17" t="n">
         <v>311.0863102573771</v>
@@ -32256,16 +32256,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q17" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R17" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S17" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T17" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U17" t="n">
         <v>0.1477066262322567</v>
@@ -32305,25 +32305,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9878751540993452</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H18" t="n">
-        <v>9.540794251433152</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I18" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J18" t="n">
-        <v>93.33253813357017</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K18" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L18" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M18" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N18" t="n">
         <v>256.9298629953381</v>
@@ -32338,16 +32338,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R18" t="n">
-        <v>61.3349152694313</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S18" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T18" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8282013443196983</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H19" t="n">
-        <v>7.363462861315141</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I19" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J19" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K19" t="n">
-        <v>96.22193800368856</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L19" t="n">
         <v>123.1309525909486</v>
@@ -32414,7 +32414,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.35056893207947</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R19" t="n">
         <v>37.2389440818657</v>
@@ -32426,7 +32426,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32712,16 +32712,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K23" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L23" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M23" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N23" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O23" t="n">
         <v>311.0863102573771</v>
@@ -32730,16 +32730,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q23" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R23" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S23" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T23" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U23" t="n">
         <v>0.1477066262322567</v>
@@ -32779,25 +32779,25 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H24" t="n">
-        <v>9.540794251433153</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I24" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J24" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K24" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L24" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M24" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N24" t="n">
         <v>256.9298629953381</v>
@@ -32812,16 +32812,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R24" t="n">
-        <v>61.33491526943131</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S24" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T24" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H25" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I25" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J25" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K25" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L25" t="n">
         <v>123.1309525909486</v>
@@ -32888,7 +32888,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R25" t="n">
         <v>37.2389440818657</v>
@@ -32900,7 +32900,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33897,16 +33897,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K38" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L38" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M38" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N38" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O38" t="n">
         <v>311.0863102573771</v>
@@ -33915,16 +33915,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q38" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R38" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S38" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T38" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U38" t="n">
         <v>0.1477066262322567</v>
@@ -33964,25 +33964,25 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9878751540993452</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H39" t="n">
-        <v>9.540794251433152</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I39" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J39" t="n">
-        <v>93.33253813357017</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K39" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L39" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M39" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N39" t="n">
         <v>256.9298629953381</v>
@@ -33997,16 +33997,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R39" t="n">
-        <v>61.3349152694313</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S39" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T39" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8282013443196983</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H40" t="n">
-        <v>7.363462861315141</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I40" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J40" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K40" t="n">
-        <v>96.22193800368856</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L40" t="n">
         <v>123.1309525909486</v>
@@ -34073,7 +34073,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.35056893207947</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R40" t="n">
         <v>37.2389440818657</v>
@@ -34085,7 +34085,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>45.40379396119668</v>
+        <v>45.40379396119666</v>
       </c>
       <c r="K11" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L11" t="n">
-        <v>274.3746085046434</v>
+        <v>274.3746085046433</v>
       </c>
       <c r="M11" t="n">
         <v>334.4622543336424</v>
@@ -35424,13 +35424,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O11" t="n">
-        <v>277.1250097811783</v>
+        <v>277.1250097811782</v>
       </c>
       <c r="P11" t="n">
-        <v>191.9262766422085</v>
+        <v>191.9262766422084</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.75034647002269</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>20.29762450082174</v>
+        <v>20.29762450082173</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L12" t="n">
-        <v>252.8135266236216</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M12" t="n">
-        <v>378.678393487941</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N12" t="n">
-        <v>407.3068328282941</v>
+        <v>211.6305083063595</v>
       </c>
       <c r="O12" t="n">
         <v>316.2959939867616</v>
@@ -35509,7 +35509,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.45371493151265</v>
+        <v>91.45371493151264</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,19 +35570,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>7.995723626970261</v>
+        <v>7.995723626970246</v>
       </c>
       <c r="L13" t="n">
-        <v>63.85525412676517</v>
+        <v>63.85525412676515</v>
       </c>
       <c r="M13" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N13" t="n">
-        <v>82.2989092579312</v>
+        <v>82.29890925793119</v>
       </c>
       <c r="O13" t="n">
-        <v>53.79651836186797</v>
+        <v>53.79651836186795</v>
       </c>
       <c r="P13" t="n">
         <v>19.62327613144092</v>
@@ -35658,7 +35658,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N14" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O14" t="n">
         <v>277.1250097811783</v>
@@ -35667,7 +35667,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.75034647002269</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>20.29762450082174</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L15" t="n">
-        <v>90.08643512996213</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M15" t="n">
         <v>378.678393487941</v>
       </c>
       <c r="N15" t="n">
-        <v>407.3068328282941</v>
+        <v>323.381847738693</v>
       </c>
       <c r="O15" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P15" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q15" t="n">
-        <v>91.45371493151265</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.995723626970261</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L16" t="n">
-        <v>63.85525412676517</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M16" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N16" t="n">
-        <v>82.2989092579312</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O16" t="n">
-        <v>53.79651836186797</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P16" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N17" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O17" t="n">
         <v>277.1250097811783</v>
@@ -35904,7 +35904,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.75034647002269</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>20.29762450082174</v>
+        <v>20.29762450082175</v>
       </c>
       <c r="K18" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L18" t="n">
-        <v>90.08643512996213</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M18" t="n">
         <v>378.678393487941</v>
       </c>
       <c r="N18" t="n">
-        <v>407.3068328282941</v>
+        <v>303.0842232378712</v>
       </c>
       <c r="O18" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P18" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q18" t="n">
-        <v>91.45371493151265</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7.995723626970261</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L19" t="n">
-        <v>63.85525412676517</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M19" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N19" t="n">
-        <v>82.2989092579312</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O19" t="n">
-        <v>53.79651836186797</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P19" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>20.29762450082174</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405873</v>
       </c>
       <c r="L21" t="n">
         <v>285.7627596518972</v>
@@ -36214,13 +36214,13 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O21" t="n">
-        <v>120.6196694648265</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P21" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q21" t="n">
-        <v>91.45371493151265</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N23" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O23" t="n">
         <v>277.1250097811783</v>
@@ -36378,7 +36378,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405873</v>
       </c>
       <c r="L24" t="n">
         <v>285.7627596518972</v>
@@ -36448,10 +36448,10 @@
         <v>378.678393487941</v>
       </c>
       <c r="N24" t="n">
-        <v>323.381847738693</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O24" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P24" t="n">
         <v>231.5559236085354</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L25" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M25" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N25" t="n">
-        <v>82.29890925793121</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O25" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P25" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>20.29762450082174</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L27" t="n">
         <v>285.7627596518972</v>
@@ -36691,10 +36691,10 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P27" t="n">
-        <v>231.5559236085354</v>
+        <v>147.630938518935</v>
       </c>
       <c r="Q27" t="n">
-        <v>58.50448190323704</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>78.80210640405873</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L30" t="n">
         <v>285.7627596518972</v>
@@ -36922,7 +36922,7 @@
         <v>378.678393487941</v>
       </c>
       <c r="N30" t="n">
-        <v>407.3068328282941</v>
+        <v>231.9281328071808</v>
       </c>
       <c r="O30" t="n">
         <v>316.2959939867616</v>
@@ -36931,7 +36931,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>20.29762450082174</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405919</v>
       </c>
       <c r="L36" t="n">
         <v>285.7627596518972</v>
@@ -37402,7 +37402,7 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P36" t="n">
-        <v>127.3333140181132</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N38" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O38" t="n">
         <v>277.1250097811783</v>
@@ -37563,7 +37563,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q38" t="n">
-        <v>65.75034647002269</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>20.29762450082174</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>162.7270914936593</v>
@@ -37633,16 +37633,16 @@
         <v>378.678393487941</v>
       </c>
       <c r="N39" t="n">
-        <v>211.630508306359</v>
+        <v>323.381847738693</v>
       </c>
       <c r="O39" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P39" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q39" t="n">
-        <v>91.45371493151265</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>7.995723626970261</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L40" t="n">
-        <v>63.85525412676517</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M40" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N40" t="n">
-        <v>82.2989092579312</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O40" t="n">
-        <v>53.79651836186797</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P40" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>162.7270914936593</v>
       </c>
       <c r="L42" t="n">
-        <v>201.8377745622961</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M42" t="n">
         <v>378.678393487941</v>
@@ -37876,7 +37876,7 @@
         <v>316.2959939867617</v>
       </c>
       <c r="P42" t="n">
-        <v>231.5559236085354</v>
+        <v>147.6309385189345</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.40379396119668</v>
+        <v>45.40379396119645</v>
       </c>
       <c r="K44" t="n">
         <v>176.3970685286315</v>
@@ -38107,7 +38107,7 @@
         <v>378.678393487941</v>
       </c>
       <c r="N45" t="n">
-        <v>303.0842232378712</v>
+        <v>211.6305083063587</v>
       </c>
       <c r="O45" t="n">
         <v>316.2959939867617</v>
@@ -38116,7 +38116,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>91.45371493151266</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
